--- a/templates/quotation_template_no_discount.xlsx
+++ b/templates/quotation_template_no_discount.xlsx
@@ -71,7 +71,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -137,6 +137,13 @@
     <border>
       <left/>
       <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
@@ -549,7 +556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -754,76 +761,62 @@
           <t>{{Quote.Export_Route_Carrier__c}}</t>
         </is>
       </c>
-      <c r="D10" s="5" t="n"/>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="4" t="n"/>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>{{Quote.Incoterms__c}}</t>
-        </is>
-      </c>
-      <c r="H10" s="5" t="n"/>
-      <c r="I10" s="5" t="n"/>
-      <c r="J10" s="5" t="n"/>
-      <c r="K10" s="5" t="n"/>
-      <c r="L10" s="5" t="n"/>
-      <c r="M10" s="5" t="n"/>
-      <c r="N10" s="4" t="n"/>
+      <c r="D10" s="8" t="n"/>
+      <c r="E10" s="8" t="n"/>
+      <c r="F10" s="8" t="n"/>
+      <c r="G10" s="13" t="inlineStr">
+        <is>
+          <t>FREIGHT: {{#if Quote.Incoterms__c 'contains' 'FREIGHT'}}☑{{else}}☐{{/if}}
+PREPAID: {{#if Quote.Incoterms__c 'contains' 'PREPAID'}}☑{{else}}☐{{/if}}
+COLLECT: {{#if Quote.Incoterms__c 'contains' 'COLLECT'}}☑{{else}}☐{{/if}}</t>
+        </is>
+      </c>
+      <c r="H10" s="8" t="n"/>
+      <c r="I10" s="8" t="n"/>
+      <c r="J10" s="8" t="n"/>
+      <c r="K10" s="8" t="n"/>
+      <c r="L10" s="8" t="n"/>
+      <c r="M10" s="8" t="n"/>
+      <c r="N10" s="8" t="n"/>
     </row>
     <row r="11" ht="25" customHeight="1">
       <c r="A11" s="9" t="n"/>
       <c r="B11" s="10" t="n"/>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>PACKING:</t>
-        </is>
-      </c>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="4" t="n"/>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>SHIPPING SCHEDULE:</t>
-        </is>
-      </c>
-      <c r="H11" s="5" t="n"/>
-      <c r="I11" s="5" t="n"/>
-      <c r="J11" s="5" t="n"/>
-      <c r="K11" s="5" t="n"/>
-      <c r="L11" s="5" t="n"/>
-      <c r="M11" s="5" t="n"/>
-      <c r="N11" s="4" t="n"/>
+      <c r="C11" s="8" t="n"/>
+      <c r="D11" s="8" t="n"/>
+      <c r="E11" s="8" t="n"/>
+      <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
+      <c r="H11" s="8" t="n"/>
+      <c r="I11" s="8" t="n"/>
+      <c r="J11" s="8" t="n"/>
+      <c r="K11" s="8" t="n"/>
+      <c r="L11" s="8" t="n"/>
+      <c r="M11" s="8" t="n"/>
+      <c r="N11" s="8" t="n"/>
     </row>
     <row r="12" ht="25" customHeight="1">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="10" t="n"/>
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>{{Quote.Packing__c}}</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="n"/>
-      <c r="E12" s="5" t="n"/>
-      <c r="F12" s="4" t="n"/>
-      <c r="G12" s="6" t="inlineStr">
-        <is>
-          <t>{{Quote.Shipping_Schedule__c}}</t>
-        </is>
-      </c>
-      <c r="H12" s="5" t="n"/>
-      <c r="I12" s="5" t="n"/>
-      <c r="J12" s="5" t="n"/>
-      <c r="K12" s="5" t="n"/>
-      <c r="L12" s="5" t="n"/>
-      <c r="M12" s="5" t="n"/>
-      <c r="N12" s="4" t="n"/>
+      <c r="C12" s="8" t="n"/>
+      <c r="D12" s="8" t="n"/>
+      <c r="E12" s="8" t="n"/>
+      <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
+      <c r="H12" s="8" t="n"/>
+      <c r="I12" s="8" t="n"/>
+      <c r="J12" s="8" t="n"/>
+      <c r="K12" s="8" t="n"/>
+      <c r="L12" s="8" t="n"/>
+      <c r="M12" s="8" t="n"/>
+      <c r="N12" s="8" t="n"/>
     </row>
     <row r="13" ht="25" customHeight="1">
       <c r="A13" s="9" t="n"/>
       <c r="B13" s="10" t="n"/>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>TERMS OF SALE:</t>
+          <t>PACKING:</t>
         </is>
       </c>
       <c r="D13" s="5" t="n"/>
@@ -831,7 +824,7 @@
       <c r="F13" s="4" t="n"/>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>TERMS OF PAYMENT:</t>
+          <t>SHIPPING SCHEDULE:</t>
         </is>
       </c>
       <c r="H13" s="5" t="n"/>
@@ -842,58 +835,74 @@
       <c r="M13" s="5" t="n"/>
       <c r="N13" s="4" t="n"/>
     </row>
-    <row r="14" ht="20" customHeight="1">
+    <row r="14" ht="45" customHeight="1">
       <c r="A14" s="9" t="n"/>
       <c r="B14" s="10" t="n"/>
-      <c r="C14" s="13" t="inlineStr">
+      <c r="C14" s="6" t="inlineStr">
+        <is>
+          <t>{{Quote.Packing__c}}</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n"/>
+      <c r="E14" s="5" t="n"/>
+      <c r="F14" s="4" t="n"/>
+      <c r="G14" s="6" t="inlineStr">
+        <is>
+          <t>{{Quote.Shipping_Schedule__c}}</t>
+        </is>
+      </c>
+      <c r="H14" s="5" t="n"/>
+      <c r="I14" s="5" t="n"/>
+      <c r="J14" s="5" t="n"/>
+      <c r="K14" s="5" t="n"/>
+      <c r="L14" s="5" t="n"/>
+      <c r="M14" s="5" t="n"/>
+      <c r="N14" s="4" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="n"/>
+      <c r="B15" s="10" t="n"/>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>TERMS OF SALE:</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n"/>
+      <c r="E15" s="5" t="n"/>
+      <c r="F15" s="4" t="n"/>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>TERMS OF PAYMENT:</t>
+        </is>
+      </c>
+      <c r="H15" s="5" t="n"/>
+      <c r="I15" s="5" t="n"/>
+      <c r="J15" s="5" t="n"/>
+      <c r="K15" s="5" t="n"/>
+      <c r="L15" s="5" t="n"/>
+      <c r="M15" s="5" t="n"/>
+      <c r="N15" s="4" t="n"/>
+    </row>
+    <row r="16" ht="20" customHeight="1">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="10" t="n"/>
+      <c r="C16" s="13" t="inlineStr">
         <is>
           <t>FOB : {{#if Quote.Terms_of_Sale__c '==' 'FOB'}}☑{{else}}☐{{/if}}
 C&amp;F : {{#if Quote.Terms_of_Sale__c '==' 'C&amp;F'}}☑{{else}}☐{{/if}}
 CIF : {{#if Quote.Terms_of_Sale__c '==' 'CIF'}}☑{{else}}☐{{/if}}</t>
         </is>
       </c>
-      <c r="D14" s="8" t="n"/>
-      <c r="E14" s="8" t="n"/>
-      <c r="F14" s="8" t="n"/>
-      <c r="G14" s="13" t="inlineStr">
+      <c r="D16" s="8" t="n"/>
+      <c r="E16" s="8" t="n"/>
+      <c r="F16" s="8" t="n"/>
+      <c r="G16" s="13" t="inlineStr">
         <is>
           <t>IRREVOCABLE LETTER OF CREDIT : {{#if Quote.Terms_of_Payment__c '==' 'IRREVOCABLE LETTER OF CREDIT'}}☑{{else}}☐{{/if}}
 T/T AT SIGHT DRAFT           : {{#if Quote.Terms_of_Payment__c '==' 'T/T AT SIGHT DRAFT'}}☑{{else}}☐{{/if}}
 CASH IN ADVANCE/WIRE TRANSFER: {{#if Quote.Terms_of_Payment__c '==' 'CASH IN ADVANCE/WIRE TRANSFER'}}☑{{else}}☐{{/if}}</t>
         </is>
       </c>
-      <c r="H14" s="8" t="n"/>
-      <c r="I14" s="8" t="n"/>
-      <c r="J14" s="8" t="n"/>
-      <c r="K14" s="8" t="n"/>
-      <c r="L14" s="8" t="n"/>
-      <c r="M14" s="8" t="n"/>
-      <c r="N14" s="8" t="n"/>
-    </row>
-    <row r="15" ht="20" customHeight="1">
-      <c r="A15" s="9" t="n"/>
-      <c r="B15" s="10" t="n"/>
-      <c r="C15" s="8" t="n"/>
-      <c r="D15" s="8" t="n"/>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
-      <c r="G15" s="8" t="n"/>
-      <c r="H15" s="8" t="n"/>
-      <c r="I15" s="8" t="n"/>
-      <c r="J15" s="8" t="n"/>
-      <c r="K15" s="8" t="n"/>
-      <c r="L15" s="8" t="n"/>
-      <c r="M15" s="8" t="n"/>
-      <c r="N15" s="8" t="n"/>
-    </row>
-    <row r="16" ht="20" customHeight="1">
-      <c r="A16" s="11" t="n"/>
-      <c r="B16" s="12" t="n"/>
-      <c r="C16" s="8" t="n"/>
-      <c r="D16" s="8" t="n"/>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
-      <c r="G16" s="8" t="n"/>
       <c r="H16" s="8" t="n"/>
       <c r="I16" s="8" t="n"/>
       <c r="J16" s="8" t="n"/>
@@ -902,18 +911,26 @@
       <c r="M16" s="8" t="n"/>
       <c r="N16" s="8" t="n"/>
     </row>
-    <row r="18">
-      <c r="A18" s="14" t="inlineStr">
-        <is>
-          <t>REMARK NUMBER ON DOCUMENTS :</t>
-        </is>
-      </c>
-      <c r="B18" s="8" t="n"/>
-      <c r="C18" s="14" t="inlineStr">
-        <is>
-          <t>BANK DETAIL: A PLUS MINERAL MATERIAL CORPORATION</t>
-        </is>
-      </c>
+    <row r="17" ht="20" customHeight="1">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="10" t="n"/>
+      <c r="C17" s="8" t="n"/>
+      <c r="D17" s="8" t="n"/>
+      <c r="E17" s="8" t="n"/>
+      <c r="F17" s="8" t="n"/>
+      <c r="G17" s="8" t="n"/>
+      <c r="H17" s="8" t="n"/>
+      <c r="I17" s="8" t="n"/>
+      <c r="J17" s="8" t="n"/>
+      <c r="K17" s="8" t="n"/>
+      <c r="L17" s="8" t="n"/>
+      <c r="M17" s="8" t="n"/>
+      <c r="N17" s="8" t="n"/>
+    </row>
+    <row r="18" ht="20" customHeight="1">
+      <c r="A18" s="11" t="n"/>
+      <c r="B18" s="12" t="n"/>
+      <c r="C18" s="8" t="n"/>
       <c r="D18" s="8" t="n"/>
       <c r="E18" s="8" t="n"/>
       <c r="F18" s="8" t="n"/>
@@ -926,289 +943,261 @@
       <c r="M18" s="8" t="n"/>
       <c r="N18" s="8" t="n"/>
     </row>
-    <row r="19" ht="40" customHeight="1">
-      <c r="A19" s="6" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="14" t="inlineStr">
+        <is>
+          <t>REMARK NUMBER ON DOCUMENTS :</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="n"/>
+      <c r="C20" s="14" t="inlineStr">
+        <is>
+          <t>BANK DETAIL: A PLUS MINERAL MATERIAL CORPORATION</t>
+        </is>
+      </c>
+      <c r="D20" s="8" t="n"/>
+      <c r="E20" s="8" t="n"/>
+      <c r="F20" s="8" t="n"/>
+      <c r="G20" s="8" t="n"/>
+      <c r="H20" s="8" t="n"/>
+      <c r="I20" s="8" t="n"/>
+      <c r="J20" s="8" t="n"/>
+      <c r="K20" s="8" t="n"/>
+      <c r="L20" s="8" t="n"/>
+      <c r="M20" s="8" t="n"/>
+      <c r="N20" s="8" t="n"/>
+    </row>
+    <row r="21" ht="40" customHeight="1">
+      <c r="A21" s="6" t="inlineStr">
         <is>
           <t>{{Quote.REMARK_NUMBER_ON_DOCUMENTS__c}}</t>
         </is>
       </c>
-      <c r="B19" s="8" t="n"/>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="B21" s="8" t="n"/>
+      <c r="C21" s="3" t="inlineStr">
         <is>
           <t>Account No: 018.137.261.4117 Bank for Foreign Trade of Viet Nam (Vietcombank), Nam Sai Gon branch
 Swift Code: BFTVVNVX018 ; Tel: 84.8.5413.5124 ; Fax: 84.8.5413.5127</t>
         </is>
       </c>
-      <c r="D19" s="8" t="n"/>
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
-      <c r="G19" s="8" t="n"/>
-      <c r="H19" s="8" t="n"/>
-      <c r="I19" s="8" t="n"/>
-      <c r="J19" s="8" t="n"/>
-      <c r="K19" s="8" t="n"/>
-      <c r="L19" s="8" t="n"/>
-      <c r="M19" s="8" t="n"/>
-      <c r="N19" s="8" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="15" t="inlineStr">
+      <c r="D21" s="8" t="n"/>
+      <c r="E21" s="8" t="n"/>
+      <c r="F21" s="8" t="n"/>
+      <c r="G21" s="8" t="n"/>
+      <c r="H21" s="8" t="n"/>
+      <c r="I21" s="8" t="n"/>
+      <c r="J21" s="8" t="n"/>
+      <c r="K21" s="8" t="n"/>
+      <c r="L21" s="8" t="n"/>
+      <c r="M21" s="8" t="n"/>
+      <c r="N21" s="8" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="15" t="inlineStr">
         <is>
           <t>ITEM NO.</t>
         </is>
       </c>
-      <c r="B21" s="15" t="inlineStr">
+      <c r="B23" s="15" t="inlineStr">
         <is>
           <t>PRODUCT DESCRIPTION</t>
         </is>
       </c>
-      <c r="C21" s="15" t="inlineStr">
+      <c r="C23" s="15" t="inlineStr">
         <is>
           <t>SIZE (cm)</t>
         </is>
       </c>
-      <c r="D21" s="15" t="n"/>
-      <c r="E21" s="15" t="n"/>
-      <c r="F21" s="15" t="inlineStr">
+      <c r="D23" s="15" t="n"/>
+      <c r="E23" s="15" t="n"/>
+      <c r="F23" s="15" t="inlineStr">
         <is>
           <t>QUANTITY</t>
         </is>
       </c>
-      <c r="G21" s="15" t="n"/>
-      <c r="H21" s="15" t="n"/>
-      <c r="I21" s="15" t="n"/>
-      <c r="J21" s="15" t="n"/>
-      <c r="K21" s="15" t="n"/>
-      <c r="L21" s="15" t="inlineStr">
+      <c r="G23" s="15" t="n"/>
+      <c r="H23" s="15" t="n"/>
+      <c r="I23" s="15" t="n"/>
+      <c r="J23" s="15" t="n"/>
+      <c r="K23" s="15" t="n"/>
+      <c r="L23" s="15" t="inlineStr">
         <is>
           <t>Unit Price (USD)</t>
         </is>
       </c>
-      <c r="M21" s="15" t="inlineStr">
+      <c r="M23" s="15" t="inlineStr">
         <is>
           <t>Total Price (USD)</t>
         </is>
       </c>
-      <c r="N21" s="15" t="inlineStr">
+      <c r="N23" s="15" t="inlineStr">
         <is>
           <t>Packing (Pcs/Crate)</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="15" t="n"/>
-      <c r="B22" s="15" t="n"/>
-      <c r="C22" s="15" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="15" t="n"/>
+      <c r="B24" s="15" t="n"/>
+      <c r="C24" s="15" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="D22" s="15" t="inlineStr">
+      <c r="D24" s="15" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="E22" s="15" t="inlineStr">
+      <c r="E24" s="15" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="F22" s="15" t="inlineStr">
+      <c r="F24" s="15" t="inlineStr">
         <is>
           <t>PCS</t>
         </is>
       </c>
-      <c r="G22" s="15" t="inlineStr">
+      <c r="G24" s="15" t="inlineStr">
         <is>
           <t>m2</t>
         </is>
       </c>
-      <c r="H22" s="15" t="inlineStr">
+      <c r="H24" s="15" t="inlineStr">
         <is>
           <t>Crates</t>
         </is>
       </c>
-      <c r="I22" s="15" t="inlineStr">
+      <c r="I24" s="15" t="inlineStr">
         <is>
           <t>m3</t>
         </is>
       </c>
-      <c r="J22" s="15" t="inlineStr">
+      <c r="J24" s="15" t="inlineStr">
         <is>
           <t>Tons</t>
         </is>
       </c>
-      <c r="K22" s="15" t="inlineStr">
+      <c r="K24" s="15" t="inlineStr">
         <is>
           <t>Cont.</t>
         </is>
       </c>
-      <c r="L22" s="15" t="n"/>
-      <c r="M22" s="15" t="n"/>
-      <c r="N22" s="15" t="n"/>
-    </row>
-    <row r="23" ht="30" customHeight="1">
-      <c r="A23" s="16" t="inlineStr">
+      <c r="L24" s="15" t="n"/>
+      <c r="M24" s="15" t="n"/>
+      <c r="N24" s="15" t="n"/>
+    </row>
+    <row r="25" ht="30" customHeight="1">
+      <c r="A25" s="16" t="inlineStr">
         <is>
           <t>{{TableStart:GetQuoteLine}}{{Quote_Line_Item_Number_Quote__c}}</t>
         </is>
       </c>
-      <c r="B23" s="13" t="inlineStr">
+      <c r="B25" s="13" t="inlineStr">
         <is>
           <t>{{Product_Description__c}}</t>
         </is>
       </c>
-      <c r="C23" s="16" t="inlineStr">
+      <c r="C25" s="16" t="inlineStr">
         <is>
           <t>{{L_Quote__c}}</t>
         </is>
       </c>
-      <c r="D23" s="16" t="inlineStr">
+      <c r="D25" s="16" t="inlineStr">
         <is>
           <t>{{W_Quote__c}}</t>
         </is>
       </c>
-      <c r="E23" s="16" t="inlineStr">
+      <c r="E25" s="16" t="inlineStr">
         <is>
           <t>{{H_Quote__c}}</t>
         </is>
       </c>
-      <c r="F23" s="16" t="inlineStr">
+      <c r="F25" s="16" t="inlineStr">
         <is>
           <t>{{PCS_Quote__c}}</t>
         </is>
       </c>
-      <c r="G23" s="16" t="inlineStr">
+      <c r="G25" s="16" t="inlineStr">
         <is>
           <t>{{m2__c}}</t>
         </is>
       </c>
-      <c r="H23" s="16" t="inlineStr">
+      <c r="H25" s="16" t="inlineStr">
         <is>
           <t>{{Crates_Quote__c}}</t>
         </is>
       </c>
-      <c r="I23" s="16" t="inlineStr">
+      <c r="I25" s="16" t="inlineStr">
         <is>
           <t>{{m3__c}}</t>
         </is>
       </c>
-      <c r="J23" s="16" t="inlineStr">
+      <c r="J25" s="16" t="inlineStr">
         <is>
           <t>{{Tons__c}}</t>
         </is>
       </c>
-      <c r="K23" s="16" t="inlineStr">
+      <c r="K25" s="16" t="inlineStr">
         <is>
           <t>{{Cont__c}}</t>
         </is>
       </c>
-      <c r="L23" s="17" t="inlineStr">
+      <c r="L25" s="17" t="inlineStr">
         <is>
           <t>{{UnitPrice}} {{Charge_Unit_Quote__c}}</t>
         </is>
       </c>
-      <c r="M23" s="16" t="inlineStr">
+      <c r="M25" s="16" t="inlineStr">
         <is>
           <t>{{Total_Price_USD__c\# #,##0.##}}</t>
         </is>
       </c>
-      <c r="N23" s="16" t="inlineStr">
+      <c r="N25" s="16" t="inlineStr">
         <is>
           <t>{{Packing_Quote__c}} {{TableEnd:GetQuoteLine}}</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="18" t="n"/>
-      <c r="B24" s="18" t="n"/>
-      <c r="C24" s="18" t="n"/>
-      <c r="D24" s="18" t="n"/>
-      <c r="E24" s="18" t="n"/>
-      <c r="F24" s="18" t="n"/>
-      <c r="G24" s="18" t="n"/>
-      <c r="H24" s="18" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="18" t="n"/>
+      <c r="B26" s="18" t="n"/>
+      <c r="C26" s="18" t="n"/>
+      <c r="D26" s="18" t="n"/>
+      <c r="E26" s="18" t="n"/>
+      <c r="F26" s="18" t="n"/>
+      <c r="G26" s="18" t="n"/>
+      <c r="H26" s="18" t="inlineStr">
         <is>
           <t>{{Quote.Total_Crates__c}}</t>
         </is>
       </c>
-      <c r="I24" s="18" t="inlineStr">
+      <c r="I26" s="18" t="inlineStr">
         <is>
           <t>{{Quote.Total_m3__c}}</t>
         </is>
       </c>
-      <c r="J24" s="18" t="inlineStr">
+      <c r="J26" s="18" t="inlineStr">
         <is>
           <t>{{Quote.Total_Tons__c}}</t>
         </is>
       </c>
-      <c r="K24" s="18" t="inlineStr">
+      <c r="K26" s="18" t="inlineStr">
         <is>
           <t>{{Quote.Total_Conts__c}}</t>
         </is>
       </c>
-      <c r="L24" s="18" t="n"/>
-      <c r="M24" s="18" t="n"/>
-      <c r="N24" s="18" t="n"/>
-    </row>
-    <row r="25" ht="50" customHeight="1">
-      <c r="A25" s="3" t="inlineStr">
+      <c r="L26" s="18" t="n"/>
+      <c r="M26" s="18" t="n"/>
+      <c r="N26" s="18" t="n"/>
+    </row>
+    <row r="27" ht="50" customHeight="1">
+      <c r="A27" s="3" t="inlineStr">
         <is>
           <t>1. All prices quoted herein are US dollars.
 2. Prices quoted herein for merchandise only are valid for 180 days.
 3. Any changes in shipping costs or insurance rates are for account of the buyer.</t>
-        </is>
-      </c>
-      <c r="B25" s="8" t="n"/>
-      <c r="C25" s="8" t="n"/>
-      <c r="D25" s="8" t="n"/>
-      <c r="E25" s="8" t="n"/>
-      <c r="F25" s="8" t="n"/>
-      <c r="G25" s="8" t="n"/>
-      <c r="H25" s="8" t="n"/>
-      <c r="I25" s="8" t="n"/>
-      <c r="J25" s="8" t="n"/>
-      <c r="K25" s="18" t="inlineStr">
-        <is>
-          <t>SUBTOTAL</t>
-        </is>
-      </c>
-      <c r="L25" s="5" t="n"/>
-      <c r="M25" s="4" t="n"/>
-      <c r="N25" s="18" t="inlineStr">
-        <is>
-          <t>{{Quote.Sub_Total_USD__c\# #,##0.##}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" ht="50" customHeight="1">
-      <c r="A26" s="8" t="n"/>
-      <c r="B26" s="8" t="n"/>
-      <c r="C26" s="8" t="n"/>
-      <c r="D26" s="8" t="n"/>
-      <c r="E26" s="8" t="n"/>
-      <c r="F26" s="8" t="n"/>
-      <c r="G26" s="8" t="n"/>
-      <c r="H26" s="8" t="n"/>
-      <c r="I26" s="8" t="n"/>
-      <c r="J26" s="8" t="n"/>
-      <c r="K26" s="18" t="inlineStr">
-        <is>
-          <t>Fumigation</t>
-        </is>
-      </c>
-      <c r="L26" s="5" t="n"/>
-      <c r="M26" s="4" t="n"/>
-      <c r="N26" s="18" t="inlineStr">
-        <is>
-          <t>{{Quote.Fumigation__c}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="27" ht="30" customHeight="1">
-      <c r="A27" s="3" t="inlineStr">
-        <is>
-          <t>In words: {{Quote.In_words__c}}</t>
         </is>
       </c>
       <c r="B27" s="8" t="n"/>
@@ -1222,36 +1211,88 @@
       <c r="J27" s="8" t="n"/>
       <c r="K27" s="18" t="inlineStr">
         <is>
-          <t>TOTAL:</t>
+          <t>SUBTOTAL</t>
         </is>
       </c>
       <c r="L27" s="5" t="n"/>
       <c r="M27" s="4" t="n"/>
       <c r="N27" s="18" t="inlineStr">
         <is>
+          <t>{{Quote.Sub_Total_USD__c\# #,##0.##}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="50" customHeight="1">
+      <c r="A28" s="8" t="n"/>
+      <c r="B28" s="8" t="n"/>
+      <c r="C28" s="8" t="n"/>
+      <c r="D28" s="8" t="n"/>
+      <c r="E28" s="8" t="n"/>
+      <c r="F28" s="8" t="n"/>
+      <c r="G28" s="8" t="n"/>
+      <c r="H28" s="8" t="n"/>
+      <c r="I28" s="8" t="n"/>
+      <c r="J28" s="8" t="n"/>
+      <c r="K28" s="18" t="inlineStr">
+        <is>
+          <t>Fumigation</t>
+        </is>
+      </c>
+      <c r="L28" s="5" t="n"/>
+      <c r="M28" s="4" t="n"/>
+      <c r="N28" s="18" t="inlineStr">
+        <is>
+          <t>{{Quote.Fumigation__c}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="30" customHeight="1">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>In words: {{Quote.In_words__c}}</t>
+        </is>
+      </c>
+      <c r="B29" s="8" t="n"/>
+      <c r="C29" s="8" t="n"/>
+      <c r="D29" s="8" t="n"/>
+      <c r="E29" s="8" t="n"/>
+      <c r="F29" s="8" t="n"/>
+      <c r="G29" s="8" t="n"/>
+      <c r="H29" s="8" t="n"/>
+      <c r="I29" s="8" t="n"/>
+      <c r="J29" s="8" t="n"/>
+      <c r="K29" s="18" t="inlineStr">
+        <is>
+          <t>TOTAL:</t>
+        </is>
+      </c>
+      <c r="L29" s="5" t="n"/>
+      <c r="M29" s="4" t="n"/>
+      <c r="N29" s="18" t="inlineStr">
+        <is>
           <t>{{Quote.Total_Price_USD__c\# #,##0.##}}</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="B29" s="19" t="inlineStr">
+    <row r="31">
+      <c r="B31" s="19" t="inlineStr">
         <is>
           <t>FOR AND ON BEHALF OF BUYER</t>
         </is>
       </c>
-      <c r="K29" s="19" t="inlineStr">
+      <c r="K31" s="19" t="inlineStr">
         <is>
           <t>FOR AND ON BEHALF OF SELLER</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="B33" s="19" t="inlineStr">
+    <row r="35">
+      <c r="B35" s="19" t="inlineStr">
         <is>
           <t>A PLUS CORP</t>
         </is>
       </c>
-      <c r="K33" s="19" t="inlineStr">
+      <c r="K35" s="19" t="inlineStr">
         <is>
           <t>{{Quote.Account.Name}}</t>
         </is>
@@ -1259,56 +1300,56 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="G12:N12"/>
     <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="A10:B16"/>
+    <mergeCell ref="G16:N18"/>
+    <mergeCell ref="A10:B18"/>
     <mergeCell ref="C7:F7"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="B31:F31"/>
     <mergeCell ref="K7:N7"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C21:N21"/>
     <mergeCell ref="C13:F13"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="K6:N6"/>
-    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="F23:K23"/>
     <mergeCell ref="K27:M27"/>
-    <mergeCell ref="A25:J26"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A27:J28"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="A6:B8"/>
-    <mergeCell ref="G10:N10"/>
+    <mergeCell ref="C15:F15"/>
     <mergeCell ref="G13:N13"/>
     <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="G10:N12"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="N23:N24"/>
     <mergeCell ref="K5:N5"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="K28:M28"/>
     <mergeCell ref="G8:J8"/>
-    <mergeCell ref="C19:N19"/>
-    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="G15:N15"/>
+    <mergeCell ref="K35:N35"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="G7:J7"/>
-    <mergeCell ref="C14:F16"/>
-    <mergeCell ref="C18:N18"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G14:N14"/>
     <mergeCell ref="E3:J3"/>
-    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="C10:F12"/>
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K29:M29"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G14:N16"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="C16:F18"/>
     <mergeCell ref="K8:N8"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="K26:M26"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="G9:N9"/>
     <mergeCell ref="G5:J5"/>
-    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="C20:N20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/templates/quotation_template_no_discount.xlsx
+++ b/templates/quotation_template_no_discount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hii\Desktop\sf-api-test\sf-api-test\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1FED70-459A-497F-96A7-93A431826861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A504FFD-8DB7-4A9A-8F77-1763F022AFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,16 +111,6 @@
     <t>TERMS OF PAYMENT:</t>
   </si>
   <si>
-    <t>FOB : {{#if Quote.Terms_of_Sale__c '==' 'FOB'}}☑{{else}}☐{{/if}}
-C&amp;F : {{#if Quote.Terms_of_Sale__c '==' 'C&amp;F'}}☑{{else}}☐{{/if}}
-CIF : {{#if Quote.Terms_of_Sale__c '==' 'CIF'}}☑{{else}}☐{{/if}}</t>
-  </si>
-  <si>
-    <t>IRREVOCABLE LETTER OF CREDIT : {{#if Quote.Terms_of_Payment__c '==' 'IRREVOCABLE LETTER OF CREDIT'}}☑{{else}}☐{{/if}}
-T/T AT SIGHT DRAFT           : {{#if Quote.Terms_of_Payment__c '==' 'T/T AT SIGHT DRAFT'}}☑{{else}}☐{{/if}}
-CASH IN ADVANCE/WIRE TRANSFER: {{#if Quote.Terms_of_Payment__c '==' 'CASH IN ADVANCE/WIRE TRANSFER'}}☑{{else}}☐{{/if}}</t>
-  </si>
-  <si>
     <t>REMARK NUMBER ON DOCUMENTS :</t>
   </si>
   <si>
@@ -274,9 +264,13 @@
     <t>{{Quote.Account.Name}}</t>
   </si>
   <si>
-    <t>FREIGHT: {{#if Quote.Incoterms__c '==' 'FREIGHT'}}☑{{else}}☐{{/if}}
-PREPAID: {{#if Quote.Incoterms__c '==' 'PREPAID'}}☑{{else}}☐{{/if}}
-COLLECT: {{#if Quote.Incoterms__c '==' 'COLLECT'}}☑{{else}}☐{{/if}}</t>
+    <t>{{Quote.Terms_of_Sale__c}}</t>
+  </si>
+  <si>
+    <t>{{Quote.Terms_of_Payment__c}}</t>
+  </si>
+  <si>
+    <t>{{Quote.Incoterms__c}}</t>
   </si>
 </sst>
 </file>
@@ -456,38 +450,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -792,7 +786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="G10" sqref="G10:N12"/>
     </sheetView>
   </sheetViews>
@@ -806,449 +800,449 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="16" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="16" t="s">
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="8"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="12"/>
     </row>
     <row r="6" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="6" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="8"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="12"/>
     </row>
     <row r="7" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="16" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="16" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="16" t="s">
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="8"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="12"/>
     </row>
     <row r="8" spans="1:14" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="6" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="6" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="6" t="s">
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="8"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="12"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="16" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="16" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="8"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="12"/>
     </row>
     <row r="10" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
     </row>
     <row r="11" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
     </row>
     <row r="12" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
     </row>
     <row r="13" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="16" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="16" t="s">
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="8"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="12"/>
     </row>
     <row r="14" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="6" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="6" t="s">
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="8"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="12"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="16" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="16" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="8"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="12"/>
     </row>
     <row r="16" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="9" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="9" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-    </row>
-    <row r="17" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-    </row>
-    <row r="18" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+    </row>
+    <row r="21" spans="1:14" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="22" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-    </row>
-    <row r="21" spans="1:14" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="16" t="s">
+      <c r="B23" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
+      <c r="C23" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19" t="s">
+      <c r="M23" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19" t="s">
+      <c r="N23" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="M23" s="19" t="s">
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N23" s="19" t="s">
+      <c r="D24" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="K24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="D25" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="L25" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="M25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="N25" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
@@ -1260,129 +1254,140 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="K26" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
     </row>
     <row r="27" spans="1:14" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="L27" s="11"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="20" t="s">
+    </row>
+    <row r="28" spans="1:14" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="L27" s="7"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="5" t="s">
+      <c r="L28" s="11"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="20" t="s">
+    <row r="29" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="L28" s="7"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="5" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="18" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+      <c r="L29" s="11"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="20" t="s">
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="L29" s="7"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="5" t="s">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="K31" s="15" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="17" t="s">
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B35" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="K31" s="17" t="s">
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="K35" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B35" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="K35" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C16:F18"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="G9:N9"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="C21:N21"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G16:N18"/>
+    <mergeCell ref="A10:B18"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A27:J28"/>
+    <mergeCell ref="K28:M28"/>
     <mergeCell ref="M23:M24"/>
+    <mergeCell ref="F23:K23"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="C10:F12"/>
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C20:N20"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K6:N6"/>
     <mergeCell ref="B35:F35"/>
     <mergeCell ref="G15:N15"/>
     <mergeCell ref="K35:N35"/>
@@ -1399,28 +1404,17 @@
     <mergeCell ref="N23:N24"/>
     <mergeCell ref="K5:N5"/>
     <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="F23:K23"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A27:J28"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C16:F18"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="G9:N9"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="E3:J3"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="A6:B8"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="G13:N13"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="C21:N21"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G16:N18"/>
-    <mergeCell ref="A10:B18"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="A29:J29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
